--- a/Team-Data/2008-09/11-20-2008-09.xlsx
+++ b/Team-Data/2008-09/11-20-2008-09.xlsx
@@ -811,10 +811,10 @@
         <v>2.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF2" t="n">
         <v>6</v>
@@ -826,13 +826,13 @@
         <v>17</v>
       </c>
       <c r="AI2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ2" t="n">
         <v>12</v>
       </c>
       <c r="AK2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL2" t="n">
         <v>2</v>
@@ -844,7 +844,7 @@
         <v>2</v>
       </c>
       <c r="AO2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP2" t="n">
         <v>16</v>
@@ -862,10 +862,10 @@
         <v>14</v>
       </c>
       <c r="AU2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW2" t="n">
         <v>14</v>
@@ -877,7 +877,7 @@
         <v>18</v>
       </c>
       <c r="AZ2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA2" t="n">
         <v>23</v>
@@ -886,7 +886,7 @@
         <v>7</v>
       </c>
       <c r="BC2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -915,85 +915,85 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
         <v>2</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.833</v>
       </c>
       <c r="H3" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I3" t="n">
         <v>33.8</v>
       </c>
       <c r="J3" t="n">
-        <v>75.59999999999999</v>
+        <v>75.5</v>
       </c>
       <c r="K3" t="n">
         <v>0.447</v>
       </c>
       <c r="L3" t="n">
-        <v>5.3</v>
+        <v>5.1</v>
       </c>
       <c r="M3" t="n">
-        <v>16.5</v>
+        <v>16.3</v>
       </c>
       <c r="N3" t="n">
-        <v>0.319</v>
+        <v>0.311</v>
       </c>
       <c r="O3" t="n">
-        <v>23.2</v>
+        <v>23</v>
       </c>
       <c r="P3" t="n">
-        <v>30</v>
+        <v>30.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.773</v>
+        <v>0.758</v>
       </c>
       <c r="R3" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S3" t="n">
-        <v>33.2</v>
+        <v>32.6</v>
       </c>
       <c r="T3" t="n">
-        <v>44.1</v>
+        <v>43.4</v>
       </c>
       <c r="U3" t="n">
-        <v>20.6</v>
+        <v>20.3</v>
       </c>
       <c r="V3" t="n">
         <v>17.3</v>
       </c>
       <c r="W3" t="n">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="X3" t="n">
-        <v>6.1</v>
+        <v>5.6</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.7</v>
+        <v>24.1</v>
       </c>
       <c r="AA3" t="n">
         <v>25.3</v>
       </c>
       <c r="AB3" t="n">
-        <v>96.09999999999999</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC3" t="n">
         <v>4.9</v>
       </c>
       <c r="AD3" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -1005,7 +1005,7 @@
         <v>2</v>
       </c>
       <c r="AH3" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
         <v>27</v>
@@ -1017,13 +1017,13 @@
         <v>12</v>
       </c>
       <c r="AL3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AM3" t="n">
         <v>16</v>
       </c>
       <c r="AN3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AO3" t="n">
         <v>3</v>
@@ -1032,31 +1032,31 @@
         <v>3</v>
       </c>
       <c r="AQ3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AR3" t="n">
         <v>19</v>
       </c>
       <c r="AS3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU3" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AV3" t="n">
         <v>30</v>
       </c>
       <c r="AW3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AZ3" t="n">
         <v>28</v>
@@ -1065,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="BB3" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="BC3" t="n">
         <v>4</v>
@@ -1196,7 +1196,7 @@
         <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL4" t="n">
         <v>27</v>
@@ -1205,16 +1205,16 @@
         <v>27</v>
       </c>
       <c r="AN4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP4" t="n">
         <v>10</v>
       </c>
       <c r="AQ4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR4" t="n">
         <v>13</v>
@@ -1229,7 +1229,7 @@
         <v>30</v>
       </c>
       <c r="AV4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW4" t="n">
         <v>17</v>
@@ -1238,13 +1238,13 @@
         <v>23</v>
       </c>
       <c r="AY4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ4" t="n">
         <v>15</v>
       </c>
       <c r="BA4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
@@ -1279,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
         <v>7</v>
       </c>
       <c r="G5" t="n">
-        <v>0.364</v>
+        <v>0.417</v>
       </c>
       <c r="H5" t="n">
         <v>48</v>
@@ -1297,76 +1297,76 @@
         <v>34.9</v>
       </c>
       <c r="J5" t="n">
-        <v>85.5</v>
+        <v>84.2</v>
       </c>
       <c r="K5" t="n">
-        <v>0.408</v>
+        <v>0.415</v>
       </c>
       <c r="L5" t="n">
         <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="N5" t="n">
-        <v>0.333</v>
+        <v>0.339</v>
       </c>
       <c r="O5" t="n">
-        <v>20.8</v>
+        <v>21.8</v>
       </c>
       <c r="P5" t="n">
-        <v>26.1</v>
+        <v>27.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.798</v>
+        <v>0.792</v>
       </c>
       <c r="R5" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="S5" t="n">
-        <v>31.2</v>
+        <v>30.8</v>
       </c>
       <c r="T5" t="n">
-        <v>44.4</v>
+        <v>44</v>
       </c>
       <c r="U5" t="n">
-        <v>17.7</v>
+        <v>18.5</v>
       </c>
       <c r="V5" t="n">
-        <v>15</v>
+        <v>15.3</v>
       </c>
       <c r="W5" t="n">
         <v>9</v>
       </c>
       <c r="X5" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>23.2</v>
+        <v>22.8</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.6</v>
+        <v>22.3</v>
       </c>
       <c r="AB5" t="n">
-        <v>95.59999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="AC5" t="n">
-        <v>-4.5</v>
+        <v>-3</v>
       </c>
       <c r="AD5" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AE5" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AF5" t="n">
         <v>21</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AH5" t="n">
         <v>17</v>
@@ -1375,7 +1375,7 @@
         <v>21</v>
       </c>
       <c r="AJ5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AK5" t="n">
         <v>29</v>
@@ -1384,19 +1384,19 @@
         <v>22</v>
       </c>
       <c r="AM5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN5" t="n">
         <v>19</v>
       </c>
       <c r="AO5" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AP5" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AQ5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AR5" t="n">
         <v>5</v>
@@ -1405,34 +1405,34 @@
         <v>13</v>
       </c>
       <c r="AT5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU5" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AV5" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AW5" t="n">
         <v>3</v>
       </c>
       <c r="AX5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>22</v>
+      </c>
+      <c r="BA5" t="n">
         <v>11</v>
       </c>
-      <c r="AY5" t="n">
-        <v>30</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>25</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>14</v>
-      </c>
       <c r="BB5" t="n">
+        <v>18</v>
+      </c>
+      <c r="BC5" t="n">
         <v>22</v>
-      </c>
-      <c r="BC5" t="n">
-        <v>24</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1461,154 +1461,154 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>36.6</v>
+        <v>36</v>
       </c>
       <c r="J6" t="n">
-        <v>77.09999999999999</v>
+        <v>76.3</v>
       </c>
       <c r="K6" t="n">
-        <v>0.475</v>
+        <v>0.472</v>
       </c>
       <c r="L6" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="M6" t="n">
-        <v>19.4</v>
+        <v>19</v>
       </c>
       <c r="N6" t="n">
-        <v>0.362</v>
+        <v>0.351</v>
       </c>
       <c r="O6" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="P6" t="n">
-        <v>27.6</v>
+        <v>28.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.783</v>
+        <v>0.777</v>
       </c>
       <c r="R6" t="n">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="S6" t="n">
-        <v>29.5</v>
+        <v>29.8</v>
       </c>
       <c r="T6" t="n">
         <v>40.4</v>
       </c>
       <c r="U6" t="n">
-        <v>20.4</v>
+        <v>20</v>
       </c>
       <c r="V6" t="n">
-        <v>12.9</v>
+        <v>13.7</v>
       </c>
       <c r="W6" t="n">
         <v>7.8</v>
       </c>
       <c r="X6" t="n">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Z6" t="n">
-        <v>21.4</v>
+        <v>21.8</v>
       </c>
       <c r="AA6" t="n">
-        <v>22.4</v>
+        <v>22.8</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.9</v>
+        <v>100.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.800000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="AE6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH6" t="n">
         <v>17</v>
       </c>
       <c r="AI6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AJ6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK6" t="n">
         <v>3</v>
       </c>
       <c r="AL6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AM6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AN6" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AO6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AP6" t="n">
         <v>7</v>
       </c>
       <c r="AQ6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AS6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT6" t="n">
         <v>19</v>
       </c>
       <c r="AU6" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AV6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AW6" t="n">
         <v>11</v>
       </c>
       <c r="AX6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AZ6" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BB6" t="n">
         <v>4</v>
@@ -1721,7 +1721,7 @@
         <v>0.4</v>
       </c>
       <c r="AD7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE7" t="n">
         <v>15</v>
@@ -1733,13 +1733,13 @@
         <v>20</v>
       </c>
       <c r="AH7" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI7" t="n">
         <v>8</v>
       </c>
       <c r="AJ7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK7" t="n">
         <v>22</v>
@@ -1754,13 +1754,13 @@
         <v>27</v>
       </c>
       <c r="AO7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR7" t="n">
         <v>6</v>
@@ -1793,7 +1793,7 @@
         <v>25</v>
       </c>
       <c r="BB7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BC7" t="n">
         <v>16</v>
@@ -1903,7 +1903,7 @@
         <v>2.8</v>
       </c>
       <c r="AD8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE8" t="n">
         <v>3</v>
@@ -1915,7 +1915,7 @@
         <v>6</v>
       </c>
       <c r="AH8" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI8" t="n">
         <v>25</v>
@@ -1927,7 +1927,7 @@
         <v>18</v>
       </c>
       <c r="AL8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM8" t="n">
         <v>19</v>
@@ -1957,7 +1957,7 @@
         <v>7</v>
       </c>
       <c r="AV8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW8" t="n">
         <v>2</v>
@@ -1975,10 +1975,10 @@
         <v>2</v>
       </c>
       <c r="BB8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -2085,13 +2085,13 @@
         <v>3</v>
       </c>
       <c r="AD9" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE9" t="n">
         <v>3</v>
       </c>
       <c r="AF9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG9" t="n">
         <v>4</v>
@@ -2100,7 +2100,7 @@
         <v>17</v>
       </c>
       <c r="AI9" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AJ9" t="n">
         <v>14</v>
@@ -2118,28 +2118,28 @@
         <v>4</v>
       </c>
       <c r="AO9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AP9" t="n">
         <v>12</v>
       </c>
       <c r="AQ9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AR9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AS9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT9" t="n">
         <v>13</v>
       </c>
       <c r="AU9" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AV9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW9" t="n">
         <v>22</v>
@@ -2154,13 +2154,13 @@
         <v>19</v>
       </c>
       <c r="BA9" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB9" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BC9" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2267,7 +2267,7 @@
         <v>-0.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE10" t="n">
         <v>15</v>
@@ -2309,10 +2309,10 @@
         <v>29</v>
       </c>
       <c r="AR10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT10" t="n">
         <v>5</v>
@@ -2333,13 +2333,13 @@
         <v>23</v>
       </c>
       <c r="AZ10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA10" t="n">
         <v>1</v>
       </c>
       <c r="BB10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC10" t="n">
         <v>17</v>
@@ -2449,19 +2449,19 @@
         <v>2.3</v>
       </c>
       <c r="AD11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH11" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI11" t="n">
         <v>29</v>
@@ -2476,7 +2476,7 @@
         <v>15</v>
       </c>
       <c r="AM11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN11" t="n">
         <v>18</v>
@@ -2491,7 +2491,7 @@
         <v>1</v>
       </c>
       <c r="AR11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS11" t="n">
         <v>10</v>
@@ -2503,7 +2503,7 @@
         <v>26</v>
       </c>
       <c r="AV11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW11" t="n">
         <v>19</v>
@@ -2524,7 +2524,7 @@
         <v>26</v>
       </c>
       <c r="BC11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2637,7 +2637,7 @@
         <v>15</v>
       </c>
       <c r="AF12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG12" t="n">
         <v>14</v>
@@ -2649,10 +2649,10 @@
         <v>6</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL12" t="n">
         <v>8</v>
@@ -2661,7 +2661,7 @@
         <v>5</v>
       </c>
       <c r="AN12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO12" t="n">
         <v>22</v>
@@ -2670,13 +2670,13 @@
         <v>23</v>
       </c>
       <c r="AQ12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR12" t="n">
         <v>17</v>
       </c>
       <c r="AS12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT12" t="n">
         <v>4</v>
@@ -2685,7 +2685,7 @@
         <v>5</v>
       </c>
       <c r="AV12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW12" t="n">
         <v>13</v>
@@ -2706,7 +2706,7 @@
         <v>6</v>
       </c>
       <c r="BC12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2813,7 +2813,7 @@
         <v>-9.800000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE13" t="n">
         <v>27</v>
@@ -2828,7 +2828,7 @@
         <v>6</v>
       </c>
       <c r="AI13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ13" t="n">
         <v>9</v>
@@ -2879,7 +2879,7 @@
         <v>15</v>
       </c>
       <c r="AZ13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA13" t="n">
         <v>26</v>
@@ -2917,88 +2917,88 @@
         </is>
       </c>
       <c r="D14" t="n">
+        <v>9</v>
+      </c>
+      <c r="E14" t="n">
         <v>8</v>
-      </c>
-      <c r="E14" t="n">
-        <v>7</v>
       </c>
       <c r="F14" t="n">
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0.875</v>
+        <v>0.889</v>
       </c>
       <c r="H14" t="n">
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>38.6</v>
+        <v>38.4</v>
       </c>
       <c r="J14" t="n">
-        <v>87.09999999999999</v>
+        <v>86.2</v>
       </c>
       <c r="K14" t="n">
-        <v>0.443</v>
+        <v>0.446</v>
       </c>
       <c r="L14" t="n">
         <v>6.3</v>
       </c>
       <c r="M14" t="n">
-        <v>17.3</v>
+        <v>16.4</v>
       </c>
       <c r="N14" t="n">
-        <v>0.362</v>
+        <v>0.385</v>
       </c>
       <c r="O14" t="n">
-        <v>22.5</v>
+        <v>21.7</v>
       </c>
       <c r="P14" t="n">
-        <v>29.9</v>
+        <v>28.6</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.753</v>
+        <v>0.759</v>
       </c>
       <c r="R14" t="n">
-        <v>14.6</v>
+        <v>14</v>
       </c>
       <c r="S14" t="n">
-        <v>33.1</v>
+        <v>33.9</v>
       </c>
       <c r="T14" t="n">
-        <v>47.8</v>
+        <v>47.9</v>
       </c>
       <c r="U14" t="n">
-        <v>21.6</v>
+        <v>21.3</v>
       </c>
       <c r="V14" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W14" t="n">
-        <v>11</v>
+        <v>10.7</v>
       </c>
       <c r="X14" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.5</v>
+        <v>21</v>
       </c>
       <c r="AA14" t="n">
-        <v>23.5</v>
+        <v>22.8</v>
       </c>
       <c r="AB14" t="n">
-        <v>106</v>
+        <v>104.9</v>
       </c>
       <c r="AC14" t="n">
-        <v>12.8</v>
+        <v>13.6</v>
       </c>
       <c r="AD14" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE14" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AF14" t="n">
         <v>1</v>
@@ -3016,31 +3016,31 @@
         <v>3</v>
       </c>
       <c r="AK14" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AL14" t="n">
         <v>11</v>
       </c>
       <c r="AM14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN14" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AO14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AP14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AQ14" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AR14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AT14" t="n">
         <v>2</v>
@@ -3049,7 +3049,7 @@
         <v>6</v>
       </c>
       <c r="AV14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
@@ -3058,16 +3058,16 @@
         <v>4</v>
       </c>
       <c r="AY14" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="BA14" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BB14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC14" t="n">
         <v>1</v>
@@ -3177,16 +3177,16 @@
         <v>-3.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF15" t="n">
         <v>21</v>
       </c>
       <c r="AG15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH15" t="n">
         <v>6</v>
@@ -3195,7 +3195,7 @@
         <v>24</v>
       </c>
       <c r="AJ15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK15" t="n">
         <v>19</v>
@@ -3204,7 +3204,7 @@
         <v>23</v>
       </c>
       <c r="AM15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN15" t="n">
         <v>20</v>
@@ -3213,10 +3213,10 @@
         <v>12</v>
       </c>
       <c r="AP15" t="n">
+        <v>14</v>
+      </c>
+      <c r="AQ15" t="n">
         <v>13</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>14</v>
       </c>
       <c r="AR15" t="n">
         <v>22</v>
@@ -3240,19 +3240,19 @@
         <v>22</v>
       </c>
       <c r="AY15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB15" t="n">
         <v>23</v>
       </c>
       <c r="BC15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3359,7 +3359,7 @@
         <v>3.6</v>
       </c>
       <c r="AD16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE16" t="n">
         <v>12</v>
@@ -3374,13 +3374,13 @@
         <v>17</v>
       </c>
       <c r="AI16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ16" t="n">
         <v>13</v>
       </c>
       <c r="AK16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL16" t="n">
         <v>5</v>
@@ -3395,7 +3395,7 @@
         <v>24</v>
       </c>
       <c r="AP16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ16" t="n">
         <v>25</v>
@@ -3407,19 +3407,19 @@
         <v>27</v>
       </c>
       <c r="AT16" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AU16" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AV16" t="n">
         <v>4</v>
       </c>
       <c r="AW16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY16" t="n">
         <v>4</v>
@@ -3431,10 +3431,10 @@
         <v>22</v>
       </c>
       <c r="BB16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3463,28 +3463,28 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
       </c>
       <c r="F17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G17" t="n">
-        <v>0.417</v>
+        <v>0.385</v>
       </c>
       <c r="H17" t="n">
-        <v>49.3</v>
+        <v>49.2</v>
       </c>
       <c r="I17" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="J17" t="n">
-        <v>82.3</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.427</v>
+        <v>0.43</v>
       </c>
       <c r="L17" t="n">
         <v>5.3</v>
@@ -3493,34 +3493,34 @@
         <v>14.2</v>
       </c>
       <c r="N17" t="n">
-        <v>0.371</v>
+        <v>0.375</v>
       </c>
       <c r="O17" t="n">
-        <v>20.3</v>
+        <v>19.8</v>
       </c>
       <c r="P17" t="n">
-        <v>26.9</v>
+        <v>26.4</v>
       </c>
       <c r="Q17" t="n">
         <v>0.752</v>
       </c>
       <c r="R17" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="S17" t="n">
-        <v>30.8</v>
+        <v>29.9</v>
       </c>
       <c r="T17" t="n">
-        <v>44.5</v>
+        <v>43.5</v>
       </c>
       <c r="U17" t="n">
         <v>20.6</v>
       </c>
       <c r="V17" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="W17" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="X17" t="n">
         <v>3.3</v>
@@ -3529,43 +3529,43 @@
         <v>5.8</v>
       </c>
       <c r="Z17" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="AA17" t="n">
-        <v>24.9</v>
+        <v>24.4</v>
       </c>
       <c r="AB17" t="n">
-        <v>95.7</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>-1.6</v>
+        <v>-2.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>15</v>
       </c>
       <c r="AF17" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AG17" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AH17" t="n">
         <v>2</v>
       </c>
       <c r="AI17" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AJ17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM17" t="n">
         <v>26</v>
@@ -3574,10 +3574,10 @@
         <v>10</v>
       </c>
       <c r="AO17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP17" t="n">
         <v>13</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>9</v>
       </c>
       <c r="AQ17" t="n">
         <v>21</v>
@@ -3586,16 +3586,16 @@
         <v>4</v>
       </c>
       <c r="AS17" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AT17" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AU17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AV17" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AW17" t="n">
         <v>29</v>
@@ -3729,7 +3729,7 @@
         <v>27</v>
       </c>
       <c r="AF18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG18" t="n">
         <v>27</v>
@@ -3756,13 +3756,13 @@
         <v>29</v>
       </c>
       <c r="AO18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP18" t="n">
         <v>24</v>
       </c>
       <c r="AQ18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR18" t="n">
         <v>17</v>
@@ -3795,10 +3795,10 @@
         <v>18</v>
       </c>
       <c r="BB18" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BC18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3908,7 +3908,7 @@
         <v>24</v>
       </c>
       <c r="AE19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF19" t="n">
         <v>16</v>
@@ -3935,13 +3935,13 @@
         <v>11</v>
       </c>
       <c r="AN19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ19" t="n">
         <v>7</v>
@@ -3956,10 +3956,10 @@
         <v>20</v>
       </c>
       <c r="AU19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW19" t="n">
         <v>23</v>
@@ -3974,7 +3974,7 @@
         <v>29</v>
       </c>
       <c r="BA19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB19" t="n">
         <v>19</v>
@@ -4093,7 +4093,7 @@
         <v>15</v>
       </c>
       <c r="AF20" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG20" t="n">
         <v>14</v>
@@ -4108,16 +4108,16 @@
         <v>27</v>
       </c>
       <c r="AK20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL20" t="n">
         <v>6</v>
       </c>
       <c r="AM20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AN20" t="n">
         <v>9</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>8</v>
       </c>
       <c r="AO20" t="n">
         <v>25</v>
@@ -4126,7 +4126,7 @@
         <v>26</v>
       </c>
       <c r="AQ20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR20" t="n">
         <v>25</v>
@@ -4138,10 +4138,10 @@
         <v>29</v>
       </c>
       <c r="AU20" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AV20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW20" t="n">
         <v>8</v>
@@ -4150,7 +4150,7 @@
         <v>26</v>
       </c>
       <c r="AY20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ20" t="n">
         <v>9</v>
@@ -4269,13 +4269,13 @@
         <v>-0.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE21" t="n">
         <v>12</v>
       </c>
       <c r="AF21" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG21" t="n">
         <v>12</v>
@@ -4290,7 +4290,7 @@
         <v>1</v>
       </c>
       <c r="AK21" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AL21" t="n">
         <v>1</v>
@@ -4299,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AO21" t="n">
         <v>28</v>
@@ -4308,7 +4308,7 @@
         <v>28</v>
       </c>
       <c r="AQ21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR21" t="n">
         <v>23</v>
@@ -4341,7 +4341,7 @@
         <v>29</v>
       </c>
       <c r="BB21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC21" t="n">
         <v>18</v>
@@ -4451,7 +4451,7 @@
         <v>-11.3</v>
       </c>
       <c r="AD22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE22" t="n">
         <v>29</v>
@@ -4469,7 +4469,7 @@
         <v>22</v>
       </c>
       <c r="AJ22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK22" t="n">
         <v>30</v>
@@ -4481,7 +4481,7 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO22" t="n">
         <v>26</v>
@@ -4490,7 +4490,7 @@
         <v>21</v>
       </c>
       <c r="AQ22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR22" t="n">
         <v>6</v>
@@ -4499,7 +4499,7 @@
         <v>8</v>
       </c>
       <c r="AT22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU22" t="n">
         <v>27</v>
@@ -4517,7 +4517,7 @@
         <v>28</v>
       </c>
       <c r="AZ22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA22" t="n">
         <v>28</v>
@@ -4633,13 +4633,13 @@
         <v>6.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE23" t="n">
         <v>3</v>
       </c>
       <c r="AF23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG23" t="n">
         <v>4</v>
@@ -4654,10 +4654,10 @@
         <v>15</v>
       </c>
       <c r="AK23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM23" t="n">
         <v>2</v>
@@ -4669,7 +4669,7 @@
         <v>11</v>
       </c>
       <c r="AP23" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AQ23" t="n">
         <v>30</v>
@@ -4681,7 +4681,7 @@
         <v>6</v>
       </c>
       <c r="AT23" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AU23" t="n">
         <v>28</v>
@@ -4690,16 +4690,16 @@
         <v>11</v>
       </c>
       <c r="AW23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX23" t="n">
         <v>1</v>
       </c>
       <c r="AY23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA23" t="n">
         <v>8</v>
@@ -4815,7 +4815,7 @@
         <v>2.7</v>
       </c>
       <c r="AD24" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE24" t="n">
         <v>15</v>
@@ -4833,10 +4833,10 @@
         <v>5</v>
       </c>
       <c r="AJ24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL24" t="n">
         <v>26</v>
@@ -4845,7 +4845,7 @@
         <v>28</v>
       </c>
       <c r="AN24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO24" t="n">
         <v>27</v>
@@ -4857,7 +4857,7 @@
         <v>24</v>
       </c>
       <c r="AR24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AS24" t="n">
         <v>2</v>
@@ -4866,10 +4866,10 @@
         <v>1</v>
       </c>
       <c r="AU24" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AV24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW24" t="n">
         <v>25</v>
@@ -4890,7 +4890,7 @@
         <v>17</v>
       </c>
       <c r="BC24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4997,7 +4997,7 @@
         <v>2.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
         <v>3</v>
@@ -5009,10 +5009,10 @@
         <v>6</v>
       </c>
       <c r="AH25" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ25" t="n">
         <v>30</v>
@@ -5027,13 +5027,13 @@
         <v>18</v>
       </c>
       <c r="AN25" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO25" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ25" t="n">
         <v>22</v>
@@ -5066,13 +5066,13 @@
         <v>8</v>
       </c>
       <c r="BA25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5101,124 +5101,124 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E26" t="n">
         <v>7</v>
       </c>
       <c r="F26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G26" t="n">
-        <v>0.636</v>
+        <v>0.583</v>
       </c>
       <c r="H26" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36</v>
+        <v>35.4</v>
       </c>
       <c r="J26" t="n">
-        <v>78.40000000000001</v>
+        <v>78.8</v>
       </c>
       <c r="K26" t="n">
-        <v>0.459</v>
+        <v>0.449</v>
       </c>
       <c r="L26" t="n">
-        <v>8.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M26" t="n">
-        <v>19.3</v>
+        <v>19.7</v>
       </c>
       <c r="N26" t="n">
-        <v>0.42</v>
+        <v>0.419</v>
       </c>
       <c r="O26" t="n">
-        <v>19.2</v>
+        <v>18.3</v>
       </c>
       <c r="P26" t="n">
-        <v>24.6</v>
+        <v>23.8</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.779</v>
+        <v>0.768</v>
       </c>
       <c r="R26" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S26" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="T26" t="n">
-        <v>39.5</v>
+        <v>39.9</v>
       </c>
       <c r="U26" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V26" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="W26" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X26" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="Y26" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD26" t="n">
         <v>3</v>
       </c>
-      <c r="Z26" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>10</v>
-      </c>
       <c r="AE26" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF26" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AG26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AH26" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ26" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AK26" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AL26" t="n">
         <v>3</v>
       </c>
       <c r="AM26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN26" t="n">
         <v>1</v>
       </c>
       <c r="AO26" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AP26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ26" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AR26" t="n">
         <v>10</v>
@@ -5227,34 +5227,34 @@
         <v>29</v>
       </c>
       <c r="AT26" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AU26" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AV26" t="n">
         <v>1</v>
       </c>
       <c r="AW26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX26" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AY26" t="n">
         <v>1</v>
       </c>
       <c r="AZ26" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="BA26" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BB26" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="BC26" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5367,7 +5367,7 @@
         <v>15</v>
       </c>
       <c r="AF27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG27" t="n">
         <v>23</v>
@@ -5379,7 +5379,7 @@
         <v>4</v>
       </c>
       <c r="AJ27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK27" t="n">
         <v>2</v>
@@ -5412,7 +5412,7 @@
         <v>27</v>
       </c>
       <c r="AU27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV27" t="n">
         <v>22</v>
@@ -5424,16 +5424,16 @@
         <v>25</v>
       </c>
       <c r="AY27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA27" t="n">
         <v>20</v>
       </c>
       <c r="BB27" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BC27" t="n">
         <v>25</v>
@@ -5543,7 +5543,7 @@
         <v>-2.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE28" t="n">
         <v>15</v>
@@ -5558,22 +5558,22 @@
         <v>3</v>
       </c>
       <c r="AI28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ28" t="n">
         <v>24</v>
       </c>
       <c r="AK28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL28" t="n">
         <v>7</v>
       </c>
       <c r="AM28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN28" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AO28" t="n">
         <v>30</v>
@@ -5588,13 +5588,13 @@
         <v>29</v>
       </c>
       <c r="AS28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT28" t="n">
         <v>26</v>
       </c>
       <c r="AU28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV28" t="n">
         <v>2</v>
@@ -5606,7 +5606,7 @@
         <v>27</v>
       </c>
       <c r="AY28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ28" t="n">
         <v>4</v>
@@ -5725,13 +5725,13 @@
         <v>-0.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AE29" t="n">
         <v>12</v>
       </c>
       <c r="AF29" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG29" t="n">
         <v>12</v>
@@ -5740,13 +5740,13 @@
         <v>6</v>
       </c>
       <c r="AI29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL29" t="n">
         <v>12</v>
@@ -5770,7 +5770,7 @@
         <v>28</v>
       </c>
       <c r="AS29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT29" t="n">
         <v>24</v>
@@ -5785,7 +5785,7 @@
         <v>27</v>
       </c>
       <c r="AX29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY29" t="n">
         <v>25</v>
@@ -5794,7 +5794,7 @@
         <v>1</v>
       </c>
       <c r="BA29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB29" t="n">
         <v>20</v>
@@ -5907,7 +5907,7 @@
         <v>4.7</v>
       </c>
       <c r="AD30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE30" t="n">
         <v>3</v>
@@ -5925,7 +5925,7 @@
         <v>9</v>
       </c>
       <c r="AJ30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK30" t="n">
         <v>4</v>
@@ -5940,19 +5940,19 @@
         <v>16</v>
       </c>
       <c r="AO30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR30" t="n">
         <v>8</v>
       </c>
       <c r="AS30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT30" t="n">
         <v>15</v>
@@ -5961,10 +5961,10 @@
         <v>2</v>
       </c>
       <c r="AV30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX30" t="n">
         <v>18</v>
@@ -5976,10 +5976,10 @@
         <v>20</v>
       </c>
       <c r="BA30" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BB30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BC30" t="n">
         <v>5</v>
@@ -6095,7 +6095,7 @@
         <v>29</v>
       </c>
       <c r="AF31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG31" t="n">
         <v>29</v>
@@ -6140,10 +6140,10 @@
         <v>28</v>
       </c>
       <c r="AU31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW31" t="n">
         <v>10</v>
@@ -6158,7 +6158,7 @@
         <v>5</v>
       </c>
       <c r="BA31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB31" t="n">
         <v>25</v>

--- a/Team-Data/2008-09/11-20-2008-09.xlsx
+++ b/Team-Data/2008-09/11-20-2008-09.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,22 +811,22 @@
         <v>2.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE2" t="n">
         <v>9</v>
       </c>
       <c r="AF2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH2" t="n">
         <v>17</v>
       </c>
       <c r="AI2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AJ2" t="n">
         <v>12</v>
@@ -777,7 +844,7 @@
         <v>2</v>
       </c>
       <c r="AO2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP2" t="n">
         <v>16</v>
@@ -792,13 +859,13 @@
         <v>19</v>
       </c>
       <c r="AT2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AU2" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW2" t="n">
         <v>14</v>
@@ -810,7 +877,7 @@
         <v>18</v>
       </c>
       <c r="AZ2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA2" t="n">
         <v>23</v>
@@ -819,7 +886,7 @@
         <v>7</v>
       </c>
       <c r="BC2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>11-20-2008-09</t>
+          <t>2008-11-20</t>
         </is>
       </c>
     </row>
@@ -863,67 +930,67 @@
         <v>48.4</v>
       </c>
       <c r="I3" t="n">
-        <v>34</v>
+        <v>33.8</v>
       </c>
       <c r="J3" t="n">
-        <v>75.40000000000001</v>
+        <v>75.5</v>
       </c>
       <c r="K3" t="n">
-        <v>0.451</v>
+        <v>0.447</v>
       </c>
       <c r="L3" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="M3" t="n">
         <v>16.3</v>
       </c>
       <c r="N3" t="n">
-        <v>0.332</v>
+        <v>0.311</v>
       </c>
       <c r="O3" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="P3" t="n">
-        <v>29.8</v>
+        <v>30.3</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.765</v>
+        <v>0.758</v>
       </c>
       <c r="R3" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S3" t="n">
-        <v>33</v>
+        <v>32.6</v>
       </c>
       <c r="T3" t="n">
-        <v>43.9</v>
+        <v>43.4</v>
       </c>
       <c r="U3" t="n">
-        <v>20.8</v>
+        <v>20.3</v>
       </c>
       <c r="V3" t="n">
-        <v>16.9</v>
+        <v>17.3</v>
       </c>
       <c r="W3" t="n">
-        <v>8.699999999999999</v>
+        <v>8.6</v>
       </c>
       <c r="X3" t="n">
-        <v>5.9</v>
+        <v>5.6</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="Z3" t="n">
-        <v>23.3</v>
+        <v>24.1</v>
       </c>
       <c r="AA3" t="n">
-        <v>24.9</v>
+        <v>25.3</v>
       </c>
       <c r="AB3" t="n">
-        <v>96.3</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC3" t="n">
-        <v>6</v>
+        <v>4.9</v>
       </c>
       <c r="AD3" t="n">
         <v>3</v>
@@ -938,7 +1005,7 @@
         <v>2</v>
       </c>
       <c r="AH3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
         <v>27</v>
@@ -947,16 +1014,16 @@
         <v>28</v>
       </c>
       <c r="AK3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL3" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AM3" t="n">
         <v>16</v>
       </c>
       <c r="AN3" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AO3" t="n">
         <v>3</v>
@@ -965,19 +1032,19 @@
         <v>3</v>
       </c>
       <c r="AQ3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AR3" t="n">
         <v>19</v>
       </c>
       <c r="AS3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU3" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AV3" t="n">
         <v>30</v>
@@ -986,19 +1053,19 @@
         <v>4</v>
       </c>
       <c r="AX3" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AZ3" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="BA3" t="n">
         <v>3</v>
       </c>
       <c r="BB3" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="BC3" t="n">
         <v>4</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>11-20-2008-09</t>
+          <t>2008-11-20</t>
         </is>
       </c>
     </row>
@@ -1126,10 +1193,10 @@
         <v>30</v>
       </c>
       <c r="AJ4" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AL4" t="n">
         <v>27</v>
@@ -1138,16 +1205,16 @@
         <v>27</v>
       </c>
       <c r="AN4" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AO4" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AP4" t="n">
         <v>10</v>
       </c>
       <c r="AQ4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR4" t="n">
         <v>13</v>
@@ -1162,7 +1229,7 @@
         <v>30</v>
       </c>
       <c r="AV4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AW4" t="n">
         <v>17</v>
@@ -1171,13 +1238,13 @@
         <v>23</v>
       </c>
       <c r="AY4" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AZ4" t="n">
         <v>15</v>
       </c>
       <c r="BA4" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB4" t="n">
         <v>30</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>11-20-2008-09</t>
+          <t>2008-11-20</t>
         </is>
       </c>
     </row>
@@ -1212,16 +1279,16 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
         <v>7</v>
       </c>
       <c r="G5" t="n">
-        <v>0.364</v>
+        <v>0.417</v>
       </c>
       <c r="H5" t="n">
         <v>48</v>
@@ -1230,76 +1297,76 @@
         <v>34.9</v>
       </c>
       <c r="J5" t="n">
-        <v>85.5</v>
+        <v>84.2</v>
       </c>
       <c r="K5" t="n">
-        <v>0.408</v>
+        <v>0.415</v>
       </c>
       <c r="L5" t="n">
         <v>5</v>
       </c>
       <c r="M5" t="n">
-        <v>15</v>
+        <v>14.8</v>
       </c>
       <c r="N5" t="n">
-        <v>0.333</v>
+        <v>0.339</v>
       </c>
       <c r="O5" t="n">
-        <v>20.8</v>
+        <v>21.8</v>
       </c>
       <c r="P5" t="n">
-        <v>26.1</v>
+        <v>27.6</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.798</v>
+        <v>0.792</v>
       </c>
       <c r="R5" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="S5" t="n">
-        <v>31.2</v>
+        <v>30.8</v>
       </c>
       <c r="T5" t="n">
-        <v>44.4</v>
+        <v>44</v>
       </c>
       <c r="U5" t="n">
-        <v>17.7</v>
+        <v>18.5</v>
       </c>
       <c r="V5" t="n">
-        <v>15</v>
+        <v>15.3</v>
       </c>
       <c r="W5" t="n">
         <v>9</v>
       </c>
       <c r="X5" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="Y5" t="n">
-        <v>7.2</v>
+        <v>6.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>23.2</v>
+        <v>22.8</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.6</v>
+        <v>22.3</v>
       </c>
       <c r="AB5" t="n">
-        <v>95.59999999999999</v>
+        <v>96.7</v>
       </c>
       <c r="AC5" t="n">
-        <v>-4.5</v>
+        <v>-3</v>
       </c>
       <c r="AD5" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AE5" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AF5" t="n">
         <v>21</v>
       </c>
       <c r="AG5" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AH5" t="n">
         <v>17</v>
@@ -1308,7 +1375,7 @@
         <v>21</v>
       </c>
       <c r="AJ5" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AK5" t="n">
         <v>29</v>
@@ -1317,19 +1384,19 @@
         <v>22</v>
       </c>
       <c r="AM5" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AN5" t="n">
         <v>19</v>
       </c>
       <c r="AO5" t="n">
+        <v>4</v>
+      </c>
+      <c r="AP5" t="n">
         <v>8</v>
       </c>
-      <c r="AP5" t="n">
-        <v>15</v>
-      </c>
       <c r="AQ5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AR5" t="n">
         <v>5</v>
@@ -1338,35 +1405,35 @@
         <v>13</v>
       </c>
       <c r="AT5" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AU5" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AV5" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AW5" t="n">
         <v>3</v>
       </c>
       <c r="AX5" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>29</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>22</v>
+      </c>
+      <c r="BA5" t="n">
         <v>11</v>
       </c>
-      <c r="AY5" t="n">
-        <v>30</v>
-      </c>
-      <c r="AZ5" t="n">
-        <v>25</v>
-      </c>
-      <c r="BA5" t="n">
-        <v>14</v>
-      </c>
       <c r="BB5" t="n">
+        <v>18</v>
+      </c>
+      <c r="BC5" t="n">
         <v>22</v>
       </c>
-      <c r="BC5" t="n">
-        <v>24</v>
-      </c>
       <c r="BD5" t="n">
         <v>10</v>
       </c>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>11-20-2008-09</t>
+          <t>2008-11-20</t>
         </is>
       </c>
     </row>
@@ -1394,91 +1461,91 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E6" t="n">
         <v>9</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8179999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="H6" t="n">
         <v>48</v>
       </c>
       <c r="I6" t="n">
-        <v>36.6</v>
+        <v>36</v>
       </c>
       <c r="J6" t="n">
-        <v>77.09999999999999</v>
+        <v>76.3</v>
       </c>
       <c r="K6" t="n">
-        <v>0.475</v>
+        <v>0.472</v>
       </c>
       <c r="L6" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="M6" t="n">
-        <v>19.4</v>
+        <v>19</v>
       </c>
       <c r="N6" t="n">
-        <v>0.362</v>
+        <v>0.351</v>
       </c>
       <c r="O6" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="P6" t="n">
-        <v>27.6</v>
+        <v>28.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.783</v>
+        <v>0.777</v>
       </c>
       <c r="R6" t="n">
-        <v>10.9</v>
+        <v>10.7</v>
       </c>
       <c r="S6" t="n">
-        <v>29.5</v>
+        <v>29.8</v>
       </c>
       <c r="T6" t="n">
         <v>40.4</v>
       </c>
       <c r="U6" t="n">
-        <v>20.4</v>
+        <v>20</v>
       </c>
       <c r="V6" t="n">
-        <v>12.9</v>
+        <v>13.7</v>
       </c>
       <c r="W6" t="n">
         <v>7.8</v>
       </c>
       <c r="X6" t="n">
-        <v>6.3</v>
+        <v>5.9</v>
       </c>
       <c r="Y6" t="n">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="Z6" t="n">
-        <v>21.4</v>
+        <v>21.8</v>
       </c>
       <c r="AA6" t="n">
-        <v>22.4</v>
+        <v>22.8</v>
       </c>
       <c r="AB6" t="n">
-        <v>101.9</v>
+        <v>100.5</v>
       </c>
       <c r="AC6" t="n">
-        <v>8.800000000000001</v>
+        <v>7.7</v>
       </c>
       <c r="AD6" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="AE6" t="n">
         <v>2</v>
       </c>
       <c r="AF6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG6" t="n">
         <v>3</v>
@@ -1487,22 +1554,22 @@
         <v>17</v>
       </c>
       <c r="AI6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AJ6" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AK6" t="n">
         <v>3</v>
       </c>
       <c r="AL6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AM6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AN6" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AO6" t="n">
         <v>4</v>
@@ -1511,37 +1578,37 @@
         <v>7</v>
       </c>
       <c r="AQ6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR6" t="n">
         <v>20</v>
       </c>
       <c r="AS6" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AT6" t="n">
         <v>19</v>
       </c>
       <c r="AU6" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AV6" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AW6" t="n">
         <v>11</v>
       </c>
       <c r="AX6" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AZ6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA6" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BB6" t="n">
         <v>4</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>11-20-2008-09</t>
+          <t>2008-11-20</t>
         </is>
       </c>
     </row>
@@ -1666,13 +1733,13 @@
         <v>20</v>
       </c>
       <c r="AH7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI7" t="n">
         <v>8</v>
       </c>
       <c r="AJ7" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AK7" t="n">
         <v>22</v>
@@ -1687,13 +1754,13 @@
         <v>27</v>
       </c>
       <c r="AO7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AP7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AQ7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR7" t="n">
         <v>6</v>
@@ -1702,19 +1769,19 @@
         <v>1</v>
       </c>
       <c r="AT7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AU7" t="n">
         <v>21</v>
       </c>
       <c r="AV7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AW7" t="n">
         <v>16</v>
       </c>
       <c r="AX7" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AY7" t="n">
         <v>8</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>11-20-2008-09</t>
+          <t>2008-11-20</t>
         </is>
       </c>
     </row>
@@ -1842,13 +1909,13 @@
         <v>3</v>
       </c>
       <c r="AF8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI8" t="n">
         <v>25</v>
@@ -1860,13 +1927,13 @@
         <v>18</v>
       </c>
       <c r="AL8" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM8" t="n">
         <v>19</v>
       </c>
       <c r="AN8" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1884,13 +1951,13 @@
         <v>7</v>
       </c>
       <c r="AT8" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU8" t="n">
         <v>7</v>
       </c>
       <c r="AV8" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AW8" t="n">
         <v>2</v>
@@ -1902,13 +1969,13 @@
         <v>27</v>
       </c>
       <c r="AZ8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BA8" t="n">
         <v>2</v>
       </c>
       <c r="BB8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BC8" t="n">
         <v>9</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>11-20-2008-09</t>
+          <t>2008-11-20</t>
         </is>
       </c>
     </row>
@@ -1940,106 +2007,106 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E9" t="n">
         <v>8</v>
       </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G9" t="n">
-        <v>0.667</v>
+        <v>0.727</v>
       </c>
       <c r="H9" t="n">
         <v>48</v>
       </c>
       <c r="I9" t="n">
-        <v>35.3</v>
+        <v>35.8</v>
       </c>
       <c r="J9" t="n">
-        <v>78.90000000000001</v>
+        <v>79.90000000000001</v>
       </c>
       <c r="K9" t="n">
-        <v>0.447</v>
+        <v>0.448</v>
       </c>
       <c r="L9" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="M9" t="n">
-        <v>15</v>
+        <v>15.2</v>
       </c>
       <c r="N9" t="n">
         <v>0.389</v>
       </c>
       <c r="O9" t="n">
-        <v>20.8</v>
+        <v>21.1</v>
       </c>
       <c r="P9" t="n">
-        <v>26.3</v>
+        <v>26.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.788</v>
+        <v>0.795</v>
       </c>
       <c r="R9" t="n">
-        <v>11.9</v>
+        <v>12.2</v>
       </c>
       <c r="S9" t="n">
-        <v>29.9</v>
+        <v>30.1</v>
       </c>
       <c r="T9" t="n">
-        <v>41.8</v>
+        <v>42.3</v>
       </c>
       <c r="U9" t="n">
-        <v>20.3</v>
+        <v>20.5</v>
       </c>
       <c r="V9" t="n">
-        <v>13.5</v>
+        <v>13.2</v>
       </c>
       <c r="W9" t="n">
         <v>6.8</v>
       </c>
       <c r="X9" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="Y9" t="n">
         <v>4.6</v>
       </c>
       <c r="Z9" t="n">
-        <v>22.3</v>
+        <v>22.5</v>
       </c>
       <c r="AA9" t="n">
-        <v>22.3</v>
+        <v>22.7</v>
       </c>
       <c r="AB9" t="n">
-        <v>97.09999999999999</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC9" t="n">
-        <v>1.3</v>
+        <v>3</v>
       </c>
       <c r="AD9" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="AE9" t="n">
         <v>3</v>
       </c>
       <c r="AF9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AG9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH9" t="n">
         <v>17</v>
       </c>
       <c r="AI9" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AJ9" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AK9" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL9" t="n">
         <v>14</v>
@@ -2054,25 +2121,25 @@
         <v>9</v>
       </c>
       <c r="AP9" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AR9" t="n">
         <v>11</v>
       </c>
       <c r="AS9" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AT9" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AU9" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AV9" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AW9" t="n">
         <v>22</v>
@@ -2084,16 +2151,16 @@
         <v>11</v>
       </c>
       <c r="AZ9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA9" t="n">
         <v>10</v>
       </c>
       <c r="BB9" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="BC9" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>11-20-2008-09</t>
+          <t>2008-11-20</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-0.3</v>
       </c>
       <c r="AD10" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE10" t="n">
         <v>15</v>
@@ -2218,13 +2285,13 @@
         <v>3</v>
       </c>
       <c r="AJ10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AK10" t="n">
         <v>21</v>
       </c>
       <c r="AL10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AM10" t="n">
         <v>13</v>
@@ -2245,7 +2312,7 @@
         <v>1</v>
       </c>
       <c r="AS10" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT10" t="n">
         <v>5</v>
@@ -2266,13 +2333,13 @@
         <v>23</v>
       </c>
       <c r="AZ10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA10" t="n">
         <v>1</v>
       </c>
       <c r="BB10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC10" t="n">
         <v>17</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>11-20-2008-09</t>
+          <t>2008-11-20</t>
         </is>
       </c>
     </row>
@@ -2391,10 +2458,10 @@
         <v>10</v>
       </c>
       <c r="AG11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH11" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AI11" t="n">
         <v>29</v>
@@ -2409,7 +2476,7 @@
         <v>15</v>
       </c>
       <c r="AM11" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AN11" t="n">
         <v>18</v>
@@ -2424,7 +2491,7 @@
         <v>1</v>
       </c>
       <c r="AR11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AS11" t="n">
         <v>10</v>
@@ -2436,7 +2503,7 @@
         <v>26</v>
       </c>
       <c r="AV11" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AW11" t="n">
         <v>19</v>
@@ -2457,7 +2524,7 @@
         <v>26</v>
       </c>
       <c r="BC11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>11-20-2008-09</t>
+          <t>2008-11-20</t>
         </is>
       </c>
     </row>
@@ -2582,10 +2649,10 @@
         <v>6</v>
       </c>
       <c r="AJ12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK12" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AL12" t="n">
         <v>8</v>
@@ -2594,7 +2661,7 @@
         <v>5</v>
       </c>
       <c r="AN12" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AO12" t="n">
         <v>22</v>
@@ -2603,22 +2670,22 @@
         <v>23</v>
       </c>
       <c r="AQ12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR12" t="n">
         <v>17</v>
       </c>
       <c r="AS12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT12" t="n">
         <v>4</v>
       </c>
       <c r="AU12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV12" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AW12" t="n">
         <v>13</v>
@@ -2639,7 +2706,7 @@
         <v>6</v>
       </c>
       <c r="BC12" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>11-20-2008-09</t>
+          <t>2008-11-20</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-9.800000000000001</v>
       </c>
       <c r="AD13" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE13" t="n">
         <v>27</v>
@@ -2761,7 +2828,7 @@
         <v>6</v>
       </c>
       <c r="AI13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ13" t="n">
         <v>9</v>
@@ -2812,7 +2879,7 @@
         <v>15</v>
       </c>
       <c r="AZ13" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BA13" t="n">
         <v>26</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>11-20-2008-09</t>
+          <t>2008-11-20</t>
         </is>
       </c>
     </row>
@@ -2865,67 +2932,67 @@
         <v>48</v>
       </c>
       <c r="I14" t="n">
-        <v>39</v>
+        <v>38.4</v>
       </c>
       <c r="J14" t="n">
-        <v>87.40000000000001</v>
+        <v>86.2</v>
       </c>
       <c r="K14" t="n">
         <v>0.446</v>
       </c>
       <c r="L14" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="M14" t="n">
-        <v>17.7</v>
+        <v>16.4</v>
       </c>
       <c r="N14" t="n">
-        <v>0.377</v>
+        <v>0.385</v>
       </c>
       <c r="O14" t="n">
-        <v>21.2</v>
+        <v>21.7</v>
       </c>
       <c r="P14" t="n">
-        <v>28.1</v>
+        <v>28.6</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.755</v>
+        <v>0.759</v>
       </c>
       <c r="R14" t="n">
         <v>14</v>
       </c>
       <c r="S14" t="n">
-        <v>33</v>
+        <v>33.9</v>
       </c>
       <c r="T14" t="n">
-        <v>47</v>
+        <v>47.9</v>
       </c>
       <c r="U14" t="n">
-        <v>22</v>
+        <v>21.3</v>
       </c>
       <c r="V14" t="n">
-        <v>13.3</v>
+        <v>14.2</v>
       </c>
       <c r="W14" t="n">
-        <v>10.4</v>
+        <v>10.7</v>
       </c>
       <c r="X14" t="n">
-        <v>6.3</v>
+        <v>6.6</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Z14" t="n">
-        <v>21.2</v>
+        <v>21</v>
       </c>
       <c r="AA14" t="n">
-        <v>22.7</v>
+        <v>22.8</v>
       </c>
       <c r="AB14" t="n">
-        <v>105.9</v>
+        <v>104.9</v>
       </c>
       <c r="AC14" t="n">
-        <v>12.8</v>
+        <v>13.6</v>
       </c>
       <c r="AD14" t="n">
         <v>29</v>
@@ -2943,10 +3010,10 @@
         <v>17</v>
       </c>
       <c r="AI14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AJ14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AK14" t="n">
         <v>13</v>
@@ -2955,34 +3022,34 @@
         <v>11</v>
       </c>
       <c r="AM14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AN14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AO14" t="n">
         <v>6</v>
       </c>
       <c r="AP14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ14" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AR14" t="n">
         <v>3</v>
       </c>
       <c r="AS14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AT14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV14" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
@@ -2991,16 +3058,16 @@
         <v>4</v>
       </c>
       <c r="AY14" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BA14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BC14" t="n">
         <v>1</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>11-20-2008-09</t>
+          <t>2008-11-20</t>
         </is>
       </c>
     </row>
@@ -3110,16 +3177,16 @@
         <v>-3.8</v>
       </c>
       <c r="AD15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE15" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF15" t="n">
         <v>21</v>
       </c>
       <c r="AG15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AH15" t="n">
         <v>6</v>
@@ -3128,7 +3195,7 @@
         <v>24</v>
       </c>
       <c r="AJ15" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK15" t="n">
         <v>19</v>
@@ -3137,19 +3204,19 @@
         <v>23</v>
       </c>
       <c r="AM15" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AO15" t="n">
         <v>12</v>
       </c>
       <c r="AP15" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AQ15" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AR15" t="n">
         <v>22</v>
@@ -3176,16 +3243,16 @@
         <v>14</v>
       </c>
       <c r="AZ15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BA15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB15" t="n">
         <v>23</v>
       </c>
       <c r="BC15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD15" t="n">
         <v>10</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>11-20-2008-09</t>
+          <t>2008-11-20</t>
         </is>
       </c>
     </row>
@@ -3307,13 +3374,13 @@
         <v>17</v>
       </c>
       <c r="AI16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AJ16" t="n">
         <v>13</v>
       </c>
       <c r="AK16" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL16" t="n">
         <v>5</v>
@@ -3328,7 +3395,7 @@
         <v>24</v>
       </c>
       <c r="AP16" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AQ16" t="n">
         <v>25</v>
@@ -3343,7 +3410,7 @@
         <v>23</v>
       </c>
       <c r="AU16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AV16" t="n">
         <v>4</v>
@@ -3352,7 +3419,7 @@
         <v>5</v>
       </c>
       <c r="AX16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AY16" t="n">
         <v>4</v>
@@ -3367,7 +3434,7 @@
         <v>14</v>
       </c>
       <c r="BC16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>11-20-2008-09</t>
+          <t>2008-11-20</t>
         </is>
       </c>
     </row>
@@ -3396,28 +3463,28 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E17" t="n">
         <v>5</v>
       </c>
       <c r="F17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G17" t="n">
-        <v>0.417</v>
+        <v>0.385</v>
       </c>
       <c r="H17" t="n">
-        <v>49.3</v>
+        <v>49.2</v>
       </c>
       <c r="I17" t="n">
-        <v>35.1</v>
+        <v>35.2</v>
       </c>
       <c r="J17" t="n">
-        <v>82.3</v>
+        <v>81.90000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>0.427</v>
+        <v>0.43</v>
       </c>
       <c r="L17" t="n">
         <v>5.3</v>
@@ -3426,34 +3493,34 @@
         <v>14.2</v>
       </c>
       <c r="N17" t="n">
-        <v>0.371</v>
+        <v>0.375</v>
       </c>
       <c r="O17" t="n">
-        <v>20.3</v>
+        <v>19.8</v>
       </c>
       <c r="P17" t="n">
-        <v>26.9</v>
+        <v>26.4</v>
       </c>
       <c r="Q17" t="n">
         <v>0.752</v>
       </c>
       <c r="R17" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="S17" t="n">
-        <v>30.8</v>
+        <v>29.9</v>
       </c>
       <c r="T17" t="n">
-        <v>44.5</v>
+        <v>43.5</v>
       </c>
       <c r="U17" t="n">
         <v>20.6</v>
       </c>
       <c r="V17" t="n">
-        <v>16.3</v>
+        <v>16.5</v>
       </c>
       <c r="W17" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="X17" t="n">
         <v>3.3</v>
@@ -3462,55 +3529,55 @@
         <v>5.8</v>
       </c>
       <c r="Z17" t="n">
-        <v>25.9</v>
+        <v>26.2</v>
       </c>
       <c r="AA17" t="n">
-        <v>24.9</v>
+        <v>24.4</v>
       </c>
       <c r="AB17" t="n">
-        <v>95.7</v>
+        <v>95.59999999999999</v>
       </c>
       <c r="AC17" t="n">
-        <v>-1.6</v>
+        <v>-2.5</v>
       </c>
       <c r="AD17" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>15</v>
       </c>
       <c r="AF17" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AG17" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AH17" t="n">
         <v>2</v>
       </c>
       <c r="AI17" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="AJ17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK17" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AL17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM17" t="n">
         <v>26</v>
       </c>
       <c r="AN17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO17" t="n">
+        <v>14</v>
+      </c>
+      <c r="AP17" t="n">
         <v>13</v>
-      </c>
-      <c r="AP17" t="n">
-        <v>9</v>
       </c>
       <c r="AQ17" t="n">
         <v>21</v>
@@ -3519,16 +3586,16 @@
         <v>4</v>
       </c>
       <c r="AS17" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AT17" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AU17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AV17" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="AW17" t="n">
         <v>29</v>
@@ -3543,7 +3610,7 @@
         <v>30</v>
       </c>
       <c r="BA17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB17" t="n">
         <v>21</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>11-20-2008-09</t>
+          <t>2008-11-20</t>
         </is>
       </c>
     </row>
@@ -3662,7 +3729,7 @@
         <v>27</v>
       </c>
       <c r="AF18" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG18" t="n">
         <v>27</v>
@@ -3689,13 +3756,13 @@
         <v>29</v>
       </c>
       <c r="AO18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AP18" t="n">
         <v>24</v>
       </c>
       <c r="AQ18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AR18" t="n">
         <v>17</v>
@@ -3722,7 +3789,7 @@
         <v>22</v>
       </c>
       <c r="AZ18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA18" t="n">
         <v>18</v>
@@ -3731,7 +3798,7 @@
         <v>15</v>
       </c>
       <c r="BC18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BD18" t="n">
         <v>10</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>11-20-2008-09</t>
+          <t>2008-11-20</t>
         </is>
       </c>
     </row>
@@ -3841,7 +3908,7 @@
         <v>24</v>
       </c>
       <c r="AE19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AF19" t="n">
         <v>16</v>
@@ -3868,16 +3935,16 @@
         <v>11</v>
       </c>
       <c r="AN19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AO19" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AP19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AR19" t="n">
         <v>15</v>
@@ -3889,10 +3956,10 @@
         <v>20</v>
       </c>
       <c r="AU19" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AV19" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AW19" t="n">
         <v>23</v>
@@ -3907,7 +3974,7 @@
         <v>29</v>
       </c>
       <c r="BA19" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BB19" t="n">
         <v>19</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>11-20-2008-09</t>
+          <t>2008-11-20</t>
         </is>
       </c>
     </row>
@@ -4041,16 +4108,16 @@
         <v>27</v>
       </c>
       <c r="AK20" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL20" t="n">
         <v>6</v>
       </c>
       <c r="AM20" t="n">
+        <v>8</v>
+      </c>
+      <c r="AN20" t="n">
         <v>9</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>8</v>
       </c>
       <c r="AO20" t="n">
         <v>25</v>
@@ -4059,7 +4126,7 @@
         <v>26</v>
       </c>
       <c r="AQ20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR20" t="n">
         <v>25</v>
@@ -4071,10 +4138,10 @@
         <v>29</v>
       </c>
       <c r="AU20" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AV20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW20" t="n">
         <v>8</v>
@@ -4083,7 +4150,7 @@
         <v>26</v>
       </c>
       <c r="AY20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AZ20" t="n">
         <v>9</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>11-20-2008-09</t>
+          <t>2008-11-20</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-0.6</v>
       </c>
       <c r="AD21" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE21" t="n">
         <v>12</v>
@@ -4217,7 +4284,7 @@
         <v>6</v>
       </c>
       <c r="AI21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ21" t="n">
         <v>1</v>
@@ -4232,7 +4299,7 @@
         <v>1</v>
       </c>
       <c r="AN21" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AO21" t="n">
         <v>28</v>
@@ -4241,13 +4308,13 @@
         <v>28</v>
       </c>
       <c r="AQ21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AR21" t="n">
         <v>23</v>
       </c>
       <c r="AS21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AT21" t="n">
         <v>17</v>
@@ -4265,7 +4332,7 @@
         <v>30</v>
       </c>
       <c r="AY21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ21" t="n">
         <v>7</v>
@@ -4274,7 +4341,7 @@
         <v>29</v>
       </c>
       <c r="BB21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC21" t="n">
         <v>18</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>11-20-2008-09</t>
+          <t>2008-11-20</t>
         </is>
       </c>
     </row>
@@ -4402,7 +4469,7 @@
         <v>22</v>
       </c>
       <c r="AJ22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK22" t="n">
         <v>30</v>
@@ -4414,7 +4481,7 @@
         <v>30</v>
       </c>
       <c r="AN22" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO22" t="n">
         <v>26</v>
@@ -4423,7 +4490,7 @@
         <v>21</v>
       </c>
       <c r="AQ22" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR22" t="n">
         <v>6</v>
@@ -4432,7 +4499,7 @@
         <v>8</v>
       </c>
       <c r="AT22" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AU22" t="n">
         <v>27</v>
@@ -4450,7 +4517,7 @@
         <v>28</v>
       </c>
       <c r="AZ22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA22" t="n">
         <v>28</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>11-20-2008-09</t>
+          <t>2008-11-20</t>
         </is>
       </c>
     </row>
@@ -4566,13 +4633,13 @@
         <v>6.4</v>
       </c>
       <c r="AD23" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE23" t="n">
         <v>3</v>
       </c>
       <c r="AF23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AG23" t="n">
         <v>4</v>
@@ -4581,22 +4648,22 @@
         <v>17</v>
       </c>
       <c r="AI23" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>15</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>14</v>
       </c>
       <c r="AK23" t="n">
         <v>17</v>
       </c>
       <c r="AL23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM23" t="n">
         <v>2</v>
       </c>
       <c r="AN23" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO23" t="n">
         <v>11</v>
@@ -4614,28 +4681,28 @@
         <v>6</v>
       </c>
       <c r="AT23" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AU23" t="n">
         <v>28</v>
       </c>
       <c r="AV23" t="n">
+        <v>11</v>
+      </c>
+      <c r="AW23" t="n">
         <v>12</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>11</v>
       </c>
       <c r="AX23" t="n">
         <v>1</v>
       </c>
       <c r="AY23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AZ23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA23" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BB23" t="n">
         <v>8</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>11-20-2008-09</t>
+          <t>2008-11-20</t>
         </is>
       </c>
     </row>
@@ -4748,7 +4815,7 @@
         <v>2.7</v>
       </c>
       <c r="AD24" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE24" t="n">
         <v>15</v>
@@ -4766,7 +4833,7 @@
         <v>5</v>
       </c>
       <c r="AJ24" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AK24" t="n">
         <v>14</v>
@@ -4778,7 +4845,7 @@
         <v>28</v>
       </c>
       <c r="AN24" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO24" t="n">
         <v>27</v>
@@ -4799,10 +4866,10 @@
         <v>1</v>
       </c>
       <c r="AU24" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AV24" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AW24" t="n">
         <v>25</v>
@@ -4820,10 +4887,10 @@
         <v>27</v>
       </c>
       <c r="BB24" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BC24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>11-20-2008-09</t>
+          <t>2008-11-20</t>
         </is>
       </c>
     </row>
@@ -4852,103 +4919,103 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E25" t="n">
         <v>8</v>
       </c>
       <c r="F25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G25" t="n">
-        <v>0.615</v>
+        <v>0.667</v>
       </c>
       <c r="H25" t="n">
         <v>48.4</v>
       </c>
       <c r="I25" t="n">
-        <v>36.5</v>
+        <v>36.4</v>
       </c>
       <c r="J25" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K25" t="n">
-        <v>0.494</v>
+        <v>0.499</v>
       </c>
       <c r="L25" t="n">
         <v>6.1</v>
       </c>
       <c r="M25" t="n">
-        <v>16.2</v>
+        <v>16</v>
       </c>
       <c r="N25" t="n">
-        <v>0.376</v>
+        <v>0.38</v>
       </c>
       <c r="O25" t="n">
-        <v>20.7</v>
+        <v>21.6</v>
       </c>
       <c r="P25" t="n">
-        <v>27.8</v>
+        <v>28.9</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.743</v>
+        <v>0.746</v>
       </c>
       <c r="R25" t="n">
-        <v>8.300000000000001</v>
+        <v>8</v>
       </c>
       <c r="S25" t="n">
-        <v>31.5</v>
+        <v>31.3</v>
       </c>
       <c r="T25" t="n">
-        <v>39.8</v>
+        <v>39.3</v>
       </c>
       <c r="U25" t="n">
-        <v>20.1</v>
+        <v>19.9</v>
       </c>
       <c r="V25" t="n">
-        <v>16.6</v>
+        <v>16.8</v>
       </c>
       <c r="W25" t="n">
-        <v>6.1</v>
+        <v>6.3</v>
       </c>
       <c r="X25" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Y25" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.4</v>
+        <v>20.8</v>
       </c>
       <c r="AA25" t="n">
-        <v>22.8</v>
+        <v>23.1</v>
       </c>
       <c r="AB25" t="n">
-        <v>99.8</v>
+        <v>100.5</v>
       </c>
       <c r="AC25" t="n">
-        <v>1.5</v>
+        <v>2.8</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE25" t="n">
         <v>3</v>
       </c>
       <c r="AF25" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AG25" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AH25" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AI25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ25" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AK25" t="n">
         <v>1</v>
@@ -4960,28 +5027,28 @@
         <v>18</v>
       </c>
       <c r="AN25" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AO25" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AP25" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AQ25" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AR25" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AS25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT25" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="AU25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV25" t="n">
         <v>29</v>
@@ -4993,19 +5060,19 @@
         <v>17</v>
       </c>
       <c r="AY25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ25" t="n">
         <v>8</v>
       </c>
       <c r="BA25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC25" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>11-20-2008-09</t>
+          <t>2008-11-20</t>
         </is>
       </c>
     </row>
@@ -5034,124 +5101,124 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E26" t="n">
         <v>7</v>
       </c>
       <c r="F26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G26" t="n">
-        <v>0.636</v>
+        <v>0.583</v>
       </c>
       <c r="H26" t="n">
-        <v>48.5</v>
+        <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36</v>
+        <v>35.4</v>
       </c>
       <c r="J26" t="n">
-        <v>78.40000000000001</v>
+        <v>78.8</v>
       </c>
       <c r="K26" t="n">
-        <v>0.459</v>
+        <v>0.449</v>
       </c>
       <c r="L26" t="n">
-        <v>8.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M26" t="n">
-        <v>19.3</v>
+        <v>19.7</v>
       </c>
       <c r="N26" t="n">
-        <v>0.42</v>
+        <v>0.419</v>
       </c>
       <c r="O26" t="n">
-        <v>19.2</v>
+        <v>18.3</v>
       </c>
       <c r="P26" t="n">
-        <v>24.6</v>
+        <v>23.8</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.779</v>
+        <v>0.768</v>
       </c>
       <c r="R26" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="S26" t="n">
-        <v>27.4</v>
+        <v>27.7</v>
       </c>
       <c r="T26" t="n">
-        <v>39.5</v>
+        <v>39.9</v>
       </c>
       <c r="U26" t="n">
-        <v>20.6</v>
+        <v>20.5</v>
       </c>
       <c r="V26" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="W26" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="X26" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="Y26" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>21.9</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>21.3</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>97.3</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AD26" t="n">
         <v>3</v>
-      </c>
-      <c r="Z26" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="AA26" t="n">
-        <v>21.7</v>
-      </c>
-      <c r="AB26" t="n">
-        <v>99.3</v>
-      </c>
-      <c r="AC26" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>12</v>
       </c>
       <c r="AE26" t="n">
         <v>9</v>
       </c>
       <c r="AF26" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AG26" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AH26" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI26" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ26" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AK26" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AL26" t="n">
         <v>3</v>
       </c>
       <c r="AM26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN26" t="n">
         <v>1</v>
       </c>
       <c r="AO26" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AP26" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AQ26" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AR26" t="n">
         <v>10</v>
@@ -5160,34 +5227,34 @@
         <v>29</v>
       </c>
       <c r="AT26" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AU26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AV26" t="n">
         <v>1</v>
       </c>
       <c r="AW26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AX26" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AY26" t="n">
         <v>1</v>
       </c>
       <c r="AZ26" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="BA26" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="BB26" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="BC26" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>11-20-2008-09</t>
+          <t>2008-11-20</t>
         </is>
       </c>
     </row>
@@ -5300,19 +5367,19 @@
         <v>15</v>
       </c>
       <c r="AF27" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG27" t="n">
         <v>23</v>
       </c>
       <c r="AH27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI27" t="n">
         <v>4</v>
       </c>
       <c r="AJ27" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AK27" t="n">
         <v>2</v>
@@ -5333,7 +5400,7 @@
         <v>27</v>
       </c>
       <c r="AQ27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR27" t="n">
         <v>27</v>
@@ -5345,7 +5412,7 @@
         <v>27</v>
       </c>
       <c r="AU27" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AV27" t="n">
         <v>22</v>
@@ -5357,10 +5424,10 @@
         <v>25</v>
       </c>
       <c r="AY27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ27" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BA27" t="n">
         <v>20</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>11-20-2008-09</t>
+          <t>2008-11-20</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>-2.7</v>
       </c>
       <c r="AD28" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE28" t="n">
         <v>15</v>
@@ -5491,22 +5558,22 @@
         <v>3</v>
       </c>
       <c r="AI28" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ28" t="n">
         <v>24</v>
       </c>
       <c r="AK28" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AL28" t="n">
         <v>7</v>
       </c>
       <c r="AM28" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO28" t="n">
         <v>30</v>
@@ -5515,19 +5582,19 @@
         <v>30</v>
       </c>
       <c r="AQ28" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AR28" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AS28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AT28" t="n">
         <v>26</v>
       </c>
       <c r="AU28" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AV28" t="n">
         <v>2</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>11-20-2008-09</t>
+          <t>2008-11-20</t>
         </is>
       </c>
     </row>
@@ -5658,7 +5725,7 @@
         <v>-0.8</v>
       </c>
       <c r="AD29" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE29" t="n">
         <v>12</v>
@@ -5673,13 +5740,13 @@
         <v>6</v>
       </c>
       <c r="AI29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AJ29" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AK29" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AL29" t="n">
         <v>12</v>
@@ -5703,10 +5770,10 @@
         <v>28</v>
       </c>
       <c r="AS29" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AT29" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AU29" t="n">
         <v>4</v>
@@ -5718,7 +5785,7 @@
         <v>27</v>
       </c>
       <c r="AX29" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY29" t="n">
         <v>25</v>
@@ -5727,7 +5794,7 @@
         <v>1</v>
       </c>
       <c r="BA29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB29" t="n">
         <v>20</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>11-20-2008-09</t>
+          <t>2008-11-20</t>
         </is>
       </c>
     </row>
@@ -5846,10 +5913,10 @@
         <v>3</v>
       </c>
       <c r="AF30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AG30" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AH30" t="n">
         <v>17</v>
@@ -5858,7 +5925,7 @@
         <v>9</v>
       </c>
       <c r="AJ30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK30" t="n">
         <v>4</v>
@@ -5873,34 +5940,34 @@
         <v>16</v>
       </c>
       <c r="AO30" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AP30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AQ30" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR30" t="n">
         <v>8</v>
       </c>
       <c r="AS30" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT30" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AU30" t="n">
         <v>2</v>
       </c>
       <c r="AV30" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AW30" t="n">
         <v>5</v>
       </c>
       <c r="AX30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY30" t="n">
         <v>24</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>11-20-2008-09</t>
+          <t>2008-11-20</t>
         </is>
       </c>
     </row>
@@ -6028,7 +6095,7 @@
         <v>29</v>
       </c>
       <c r="AF31" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AG31" t="n">
         <v>29</v>
@@ -6040,7 +6107,7 @@
         <v>26</v>
       </c>
       <c r="AJ31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK31" t="n">
         <v>23</v>
@@ -6073,10 +6140,10 @@
         <v>28</v>
       </c>
       <c r="AU31" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AV31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW31" t="n">
         <v>10</v>
@@ -6091,7 +6158,7 @@
         <v>5</v>
       </c>
       <c r="BA31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BB31" t="n">
         <v>25</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>11-20-2008-09</t>
+          <t>2008-11-20</t>
         </is>
       </c>
     </row>
